--- a/table.xlsx
+++ b/table.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,25 +447,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 5</t>
         </is>
@@ -478,23 +483,26 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>A2.txt</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,23 +511,26 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>A3.txt</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,20 +540,23 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,23 +565,26 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>C5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -576,23 +593,26 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>A6.txt</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>C6</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -601,23 +621,26 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>C7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -626,23 +649,26 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>A2.txt</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>C8</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -651,15 +677,18 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>A2.txt</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
